--- a/data/output/Analisis_categoria_C_y_D/Analisis_Categorias_C_y_D_25022026.xlsx
+++ b/data/output/Analisis_categoria_C_y_D/Analisis_Categorias_C_y_D_25022026.xlsx
@@ -504,7 +504,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 00:53</t>
+          <t>Fecha de generación: 25/02/2026 03:00</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 00:53</t>
+          <t>Fecha de generación: 25/02/2026 03:00</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 00:53</t>
+          <t>Fecha de generación: 25/02/2026 03:00</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 00:53</t>
+          <t>Fecha de generación: 25/02/2026 03:00</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 00:53</t>
+          <t>Fecha de generación: 25/02/2026 03:00</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 00:53</t>
+          <t>Fecha de generación: 25/02/2026 03:00</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>VRT</t>
+          <t>HRZ</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>HRZ</t>
+          <t>VRT</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
@@ -5273,43 +5273,43 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>6302020101</t>
+          <t>6103080174</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>MACETERO COCO VERDE</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>20X17</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ANGEL MADERA DE ALAMO 5X5X12CM SURTIDO</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr"/>
+      <c r="D51" s="4" t="inlineStr"/>
       <c r="E51" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>6103080174</t>
+          <t>6302020101</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>ANGEL MADERA DE ALAMO 5X5X12CM SURTIDO</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr"/>
-      <c r="D52" s="4" t="inlineStr"/>
+          <t>MACETERO COCO VERDE</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>20X17</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E52" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5509,35 +5509,35 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>6401040047</t>
+          <t>6401040044</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>INCIENSO KOH DO LAVANDA</t>
+          <t>INCIENSO KOH DO CANELA</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr"/>
       <c r="D63" s="4" t="inlineStr"/>
       <c r="E63" s="4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>6401040044</t>
+          <t>6401040047</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>INCIENSO KOH DO CANELA</t>
+          <t>INCIENSO KOH DO LAVANDA</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr"/>
       <c r="D64" s="4" t="inlineStr"/>
       <c r="E64" s="4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5636,43 +5636,43 @@
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>6401090149</t>
+          <t>6201010188</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>DIFUSOR CAÑAS BRISA MARINA</t>
-        </is>
-      </c>
-      <c r="C70" s="4" t="inlineStr">
-        <is>
-          <t>180ML</t>
-        </is>
-      </c>
-      <c r="D70" s="4" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HORTENSIA WATER STEM 53CM MALVA</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr"/>
+      <c r="D70" s="4" t="inlineStr"/>
       <c r="E70" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>6201010188</t>
+          <t>6401090149</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>HORTENSIA WATER STEM 53CM MALVA</t>
-        </is>
-      </c>
-      <c r="C71" s="4" t="inlineStr"/>
-      <c r="D71" s="4" t="inlineStr"/>
+          <t>DIFUSOR CAÑAS BRISA MARINA</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>180ML</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E71" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -5770,12 +5770,12 @@
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>6401090121</t>
+          <t>6401090144</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>DIFUSOR CAÑAS CEREZO EN FLOR</t>
+          <t>DIFUSOR CAÑAS DAMA DE NOCHE</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
@@ -5789,18 +5789,18 @@
         </is>
       </c>
       <c r="E76" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>6401090144</t>
+          <t>6401090121</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>DIFUSOR CAÑAS DAMA DE NOCHE</t>
+          <t>DIFUSOR CAÑAS CEREZO EN FLOR</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
@@ -5814,18 +5814,18 @@
         </is>
       </c>
       <c r="E77" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>6401090178</t>
+          <t>6201130005</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>PARF THE BLANC PURETE 500ML</t>
+          <t>ENCARADO DALIA HORTENSIA</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr"/>
@@ -5837,35 +5837,35 @@
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>6401090073</t>
+          <t>6401090178</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>PARF ANGELIQUE NOIRE 500ML</t>
+          <t>PARF THE BLANC PURETE 500ML</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr"/>
       <c r="D79" s="4" t="inlineStr"/>
       <c r="E79" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>6201130005</t>
+          <t>6401090073</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>ENCARADO DALIA HORTENSIA</t>
+          <t>PARF ANGELIQUE NOIRE 500ML</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr"/>
       <c r="D80" s="4" t="inlineStr"/>
       <c r="E80" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -6057,52 +6057,52 @@
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>6401090078</t>
+          <t>6401010002</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>PARF CHARDON SAUVAGE 500ML</t>
+          <t>PARF 500ML ORANGE EXTREME</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr"/>
       <c r="D91" s="4" t="inlineStr"/>
       <c r="E91" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>6401010002</t>
+          <t>6201010094</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>PARF 500ML ORANGE EXTREME</t>
+          <t>ROSA ECUADOR CERRADA</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr"/>
       <c r="D92" s="4" t="inlineStr"/>
       <c r="E92" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>6201010094</t>
+          <t>6401090078</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>ROSA ECUADOR CERRADA</t>
+          <t>PARF CHARDON SAUVAGE 500ML</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr"/>
       <c r="D93" s="4" t="inlineStr"/>
       <c r="E93" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -6495,18 +6495,18 @@
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>6201070001</t>
+          <t>6201070028</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>BEGONIA SALMON EN MACETA GRIS 25X20CM</t>
+          <t>BEGONIA AMARILLA EN MACETA GRIS 25X20CM</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr"/>
       <c r="D113" s="4" t="inlineStr"/>
       <c r="E113" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="B122" s="6" t="n">
-        <v>707</v>
+        <v>718</v>
       </c>
     </row>
     <row r="123">
@@ -6654,7 +6654,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 00:53</t>
+          <t>Fecha de generación: 25/02/2026 03:00</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 00:53</t>
+          <t>Fecha de generación: 25/02/2026 03:00</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 00:53</t>
+          <t>Fecha de generación: 25/02/2026 03:00</t>
         </is>
       </c>
     </row>
@@ -7489,12 +7489,12 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>2301060007</t>
+          <t>2301060001</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>ACANA PUPPY LARGE DOG BREED RECIPE</t>
+          <t>ACANA ADULT LARGE DOG</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -7508,18 +7508,18 @@
         </is>
       </c>
       <c r="E15" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>2301060001</t>
+          <t>2301060007</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>ACANA ADULT LARGE DOG</t>
+          <t>ACANA PUPPY LARGE DOG BREED RECIPE</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="E16" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -10120,43 +10120,43 @@
     <row r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>2401040028</t>
+          <t>2304030018</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>NATURES VARIETY ADULT STERILIZED NO GRAIN SALMON</t>
-        </is>
-      </c>
-      <c r="C134" s="4" t="inlineStr">
-        <is>
-          <t>1250G</t>
-        </is>
-      </c>
-      <c r="D134" s="4" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ADTAB COMPRIMIDO COMESTIBLE 450MG PERRO 11-22KG</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr"/>
+      <c r="D134" s="4" t="inlineStr"/>
       <c r="E134" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>2304030018</t>
+          <t>2401040028</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>ADTAB COMPRIMIDO COMESTIBLE 450MG PERRO 11-22KG</t>
-        </is>
-      </c>
-      <c r="C135" s="4" t="inlineStr"/>
-      <c r="D135" s="4" t="inlineStr"/>
+          <t>NATURES VARIETY ADULT STERILIZED NO GRAIN SALMON</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>1250G</t>
+        </is>
+      </c>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E135" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -10832,88 +10832,88 @@
     <row r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>2301010099</t>
+          <t>2301040011</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>WNVD ORIGINAL MED CHICKEN 300GR</t>
-        </is>
-      </c>
-      <c r="C166" s="4" t="inlineStr"/>
-      <c r="D166" s="4" t="inlineStr"/>
+          <t>ADVANCE MINI LIGHT CHICKEN &amp; RICE</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr">
+        <is>
+          <t>1I5KG</t>
+        </is>
+      </c>
+      <c r="D166" s="4" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E166" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>2301040014</t>
+          <t>2301090007</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>ADVANCE MINI SENSITIVE SALMON &amp; RICE</t>
-        </is>
-      </c>
-      <c r="C167" s="4" t="inlineStr">
-        <is>
-          <t>1I5KG</t>
-        </is>
-      </c>
-      <c r="D167" s="4" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ADVANCE SNACK SENSITIVE 150GR</t>
+        </is>
+      </c>
+      <c r="C167" s="4" t="inlineStr"/>
+      <c r="D167" s="4" t="inlineStr"/>
       <c r="E167" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>2301010100</t>
+          <t>2301010099</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>WNVD ORIGINAL MED TURKEY 300GR</t>
+          <t>WNVD ORIGINAL MED CHICKEN 300GR</t>
         </is>
       </c>
       <c r="C168" s="4" t="inlineStr"/>
       <c r="D168" s="4" t="inlineStr"/>
       <c r="E168" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>2301090007</t>
+          <t>2301010100</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>ADVANCE SNACK SENSITIVE 150GR</t>
+          <t>WNVD ORIGINAL MED TURKEY 300GR</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr"/>
       <c r="D169" s="4" t="inlineStr"/>
       <c r="E169" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>2301040011</t>
+          <t>2301040014</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>ADVANCE MINI LIGHT CHICKEN &amp; RICE</t>
+          <t>ADVANCE MINI SENSITIVE SALMON &amp; RICE</t>
         </is>
       </c>
       <c r="C170" s="4" t="inlineStr">
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="E170" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -10958,18 +10958,18 @@
     <row r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>2301080020</t>
+          <t>2401010242</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>PULMON DE TERNERA 200GR</t>
+          <t>FELIX TASTY SHREDS 12X80G</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr"/>
       <c r="D172" s="4" t="inlineStr"/>
       <c r="E172" s="4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
@@ -10992,18 +10992,18 @@
     <row r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>2401010242</t>
+          <t>2301080020</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>FELIX TASTY SHREDS 12X80G</t>
+          <t>PULMON DE TERNERA 200GR</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr"/>
       <c r="D174" s="4" t="inlineStr"/>
       <c r="E174" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175">
@@ -11084,43 +11084,43 @@
     <row r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>2301010086</t>
+          <t>2401010008</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>P07 TURKEY DELIGHT</t>
-        </is>
-      </c>
-      <c r="C178" s="4" t="inlineStr">
-        <is>
-          <t>100G</t>
-        </is>
-      </c>
-      <c r="D178" s="4" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>AMANOVA CAT ATUN &amp; BOQUERONES 70GR</t>
+        </is>
+      </c>
+      <c r="C178" s="4" t="inlineStr"/>
+      <c r="D178" s="4" t="inlineStr"/>
       <c r="E178" s="4" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>2401010008</t>
+          <t>2301010086</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>AMANOVA CAT ATUN &amp; BOQUERONES 70GR</t>
-        </is>
-      </c>
-      <c r="C179" s="4" t="inlineStr"/>
-      <c r="D179" s="4" t="inlineStr"/>
+          <t>P07 TURKEY DELIGHT</t>
+        </is>
+      </c>
+      <c r="C179" s="4" t="inlineStr">
+        <is>
+          <t>100G</t>
+        </is>
+      </c>
+      <c r="D179" s="4" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E179" s="4" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180">
@@ -11387,35 +11387,35 @@
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>2302050017</t>
+          <t>2301010026</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>COLCHON DESENFUNDABLE 80X62X10CM</t>
+          <t>COMIDA HUMEDA DIETA DOG GASTROENTERIC 150G</t>
         </is>
       </c>
       <c r="C193" s="4" t="inlineStr"/>
       <c r="D193" s="4" t="inlineStr"/>
       <c r="E193" s="4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="4" t="inlineStr">
         <is>
-          <t>2301010026</t>
+          <t>2302050017</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>COMIDA HUMEDA DIETA DOG GASTROENTERIC 150G</t>
+          <t>COLCHON DESENFUNDABLE 80X62X10CM</t>
         </is>
       </c>
       <c r="C194" s="4" t="inlineStr"/>
       <c r="D194" s="4" t="inlineStr"/>
       <c r="E194" s="4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195">
@@ -11596,7 +11596,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 00:53</t>
+          <t>Fecha de generación: 25/02/2026 03:00</t>
         </is>
       </c>
     </row>
@@ -11763,7 +11763,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 00:53</t>
+          <t>Fecha de generación: 25/02/2026 03:00</t>
         </is>
       </c>
     </row>
@@ -12143,35 +12143,35 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>5401010028</t>
+          <t>5404010017</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>TAGETE ALTO DOBLE VARIADO</t>
+          <t>PEREJIL COMUN DE HOJA LISA</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr"/>
       <c r="D23" s="4" t="inlineStr"/>
       <c r="E23" s="4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>5404010017</t>
+          <t>5401010028</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>PEREJIL COMUN DE HOJA LISA</t>
+          <t>TAGETE ALTO DOBLE VARIADO</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr"/>
       <c r="D24" s="4" t="inlineStr"/>
       <c r="E24" s="4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">

--- a/data/output/Analisis_categoria_C_y_D/Analisis_Categorias_C_y_D_25022026.xlsx
+++ b/data/output/Analisis_categoria_C_y_D/Analisis_Categorias_C_y_D_25022026.xlsx
@@ -76,7 +76,7 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="000000FF"/>
+      <color rgb="00FF0000"/>
       <sz val="14"/>
     </font>
     <font>
@@ -536,7 +536,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 19:16</t>
+          <t>Fecha de generación: 25/02/2026 19:38</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo</t>
+          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo (en rojo)</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 19:16</t>
+          <t>Fecha de generación: 25/02/2026 19:38</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo</t>
+          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo (en rojo)</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 19:16</t>
+          <t>Fecha de generación: 25/02/2026 19:38</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo</t>
+          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo (en rojo)</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 19:16</t>
+          <t>Fecha de generación: 25/02/2026 19:38</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo</t>
+          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo (en rojo)</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 19:16</t>
+          <t>Fecha de generación: 25/02/2026 19:38</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
         <v>130</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G12" s="10" t="inlineStr">
         <is>
@@ -3617,11 +3617,11 @@
         <v>207</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>261</v>
-      </c>
-      <c r="G15" s="10" t="inlineStr">
-        <is>
-          <t>↓</t>
+        <v>200</v>
+      </c>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
     </row>
@@ -3650,11 +3650,11 @@
         <v>2</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="6" t="inlineStr">
-        <is>
-          <t>=</t>
+        <v>1</v>
+      </c>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
     </row>
@@ -3708,11 +3708,11 @@
         <v>4</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G18" s="10" t="inlineStr">
-        <is>
-          <t>↓</t>
+        <v>3</v>
+      </c>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
     </row>
@@ -3791,11 +3791,11 @@
         <v>92</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="G21" s="10" t="inlineStr">
-        <is>
-          <t>↓</t>
+        <v>25</v>
+      </c>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
     </row>
@@ -3824,11 +3824,11 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
-        <is>
-          <t>=</t>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -4337,11 +4337,11 @@
         <v>15</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="G39" s="10" t="inlineStr">
-        <is>
-          <t>↓</t>
+        <v>0</v>
+      </c>
+      <c r="G39" s="11" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -4717,11 +4717,11 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>63</v>
-      </c>
-      <c r="G51" s="10" t="inlineStr">
-        <is>
-          <t>↓</t>
+        <v>40</v>
+      </c>
+      <c r="G51" s="11" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo</t>
+          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo (en rojo)</t>
         </is>
       </c>
     </row>
@@ -5186,7 +5186,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 19:16</t>
+          <t>Fecha de generación: 25/02/2026 19:38</t>
         </is>
       </c>
     </row>
@@ -7850,7 +7850,7 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo</t>
+          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo (en rojo)</t>
         </is>
       </c>
     </row>
@@ -7915,7 +7915,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 19:16</t>
+          <t>Fecha de generación: 25/02/2026 19:38</t>
         </is>
       </c>
     </row>
@@ -8044,7 +8044,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo</t>
+          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo (en rojo)</t>
         </is>
       </c>
     </row>
@@ -8110,7 +8110,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 19:16</t>
+          <t>Fecha de generación: 25/02/2026 19:38</t>
         </is>
       </c>
     </row>
@@ -8364,7 +8364,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo</t>
+          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo (en rojo)</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 19:16</t>
+          <t>Fecha de generación: 25/02/2026 19:38</t>
         </is>
       </c>
     </row>
@@ -13725,7 +13725,7 @@
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo</t>
+          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo (en rojo)</t>
         </is>
       </c>
     </row>
@@ -13790,7 +13790,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 19:16</t>
+          <t>Fecha de generación: 25/02/2026 19:38</t>
         </is>
       </c>
     </row>
@@ -13919,7 +13919,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo</t>
+          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo (en rojo)</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de generación: 25/02/2026 19:16</t>
+          <t>Fecha de generación: 25/02/2026 19:38</t>
         </is>
       </c>
     </row>
@@ -14689,7 +14689,7 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo</t>
+          <t>LEYENDA DE EVOLUCIÓN: ↓ = Stock disminuyendo (deseado) | ↑ = Stock aumentando | = = Sin cambios | NEW = Nuevo artículo (en rojo)</t>
         </is>
       </c>
     </row>
